--- a/biology/Botanique/Aconit_tue-loup/Aconit_tue-loup.xlsx
+++ b/biology/Botanique/Aconit_tue-loup/Aconit_tue-loup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aconitum lycoctonum subsp. vulparia
 L'aconit tue-loup (Aconitum lycoctonum subsp. vulparia) est une sous-espèce de plantes herbacées montagnarde très toxique. Elle appartient au genre Aconitum, à la famille des Renonculacées
@@ -513,7 +525,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aconitum vulparia Rchb.</t>
         </is>
@@ -543,11 +557,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette grande plante vivace glabre à feuilles palmées très découpées, fleurit en été jusqu'à 2 400 mètres d'altitude, dans les lieux rocheux, les prairies ou à l'orée des bois. On rencontre fréquemment l'aconit tue-loup auprès de l'aconit napel, dont il se différencie par sa taille plus élevée et ses longues grappes de fleurs jaune pâle, dont le casque est plus étroit et plus allongé que chez Aconitum napellus subsp. napellus. Lorsque les fleurs vieillissent, le casque a tendance à se fendre horizontalement à son sommet. Comme tous les aconits, la plante contient plusieurs alcaloïdes dont l'aconitine, poison mortel pour l'homme.
-Caractéristiques
-Organes reproducteurs :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aconit_tue-loup</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aconit_tue-loup</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : racème de racèmes
 Répartition des sexes :  hermaphrodite
 Type de pollinisation :  entomogame
@@ -559,8 +610,43 @@
 Habitat type : mégaphorbiaies subalpines
 Aire de répartition : eurasiatique
 Données d'après : Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004. 
-Toxicité
-C'est une plante connue pour l'activité neurotoxique de ses alcaloïdes, comme les autres espèces du genre Aconitum. On l'a utilisée depuis l'Antiquité pour empoisonner les flèches ou pour éliminer les animaux sauvages dont on voulait se protéger (chacals, tigres, renards, loups… d'où le nom vernaculaire donné à cette plante) avec des appâts (en mêlant de la racine d'aconit à de la viande avariée, en imprégnant des viandes de leur suc, en éventrant des proies mortes et en les fourrant avec cet Aconit)[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aconit_tue-loup</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aconit_tue-loup</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante connue pour l'activité neurotoxique de ses alcaloïdes, comme les autres espèces du genre Aconitum. On l'a utilisée depuis l'Antiquité pour empoisonner les flèches ou pour éliminer les animaux sauvages dont on voulait se protéger (chacals, tigres, renards, loups… d'où le nom vernaculaire donné à cette plante) avec des appâts (en mêlant de la racine d'aconit à de la viande avariée, en imprégnant des viandes de leur suc, en éventrant des proies mortes et en les fourrant avec cet Aconit).
 </t>
         </is>
       </c>
